--- a/easyexcel-operation/src/test/resources/template/userMapTemplate.xlsx
+++ b/easyexcel-operation/src/test/resources/template/userMapTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7710"/>
+    <workbookView windowWidth="15315" windowHeight="7710"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+  <si>
+    <t>当前日期</t>
+  </si>
+  <si>
+    <t>{nowDate}</t>
+  </si>
   <si>
     <t>姓名</t>
   </si>
@@ -38,6 +44,18 @@
   </si>
   <si>
     <t>{.birthday}</t>
+  </si>
+  <si>
+    <t>{data.name}</t>
+  </si>
+  <si>
+    <t>{data.age}</t>
+  </si>
+  <si>
+    <t>{data.sex}</t>
+  </si>
+  <si>
+    <t>{data.birthday}</t>
   </si>
 </sst>
 </file>
@@ -51,8 +69,16 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="23">
-    <font>
+  <fonts count="24">
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
@@ -527,51 +553,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -581,98 +604,101 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -682,7 +708,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1004,46 +1033,87 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="10.25" customWidth="1"/>
     <col min="2" max="2" width="10.125" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="7" max="7" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="6:7">
+      <c r="F4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="6:7">
+      <c r="F5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="6:7">
+      <c r="F6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="6:7">
+      <c r="F7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
